--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -38,12 +38,161 @@
     <t>Кавитация</t>
   </si>
   <si>
+    <t>Дата расчета:</t>
+  </si>
+  <si>
+    <t>Объект:</t>
+  </si>
+  <si>
+    <t>Место установки:</t>
+  </si>
+  <si>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Рабочая среда:</t>
+  </si>
+  <si>
+    <t>Максимальная рабочая температура:</t>
+  </si>
+  <si>
+    <t>Максимальное рабочее давление:</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Длина L=</t>
+  </si>
+  <si>
+    <t>Высота H1=</t>
+  </si>
+  <si>
+    <t>Высота H=</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Исполнение регулятора:</t>
+  </si>
+  <si>
+    <t>Регулятор давления "после себя"</t>
+  </si>
+  <si>
+    <t>Марка регулятора:</t>
+  </si>
+  <si>
+    <t>Потери давления на клапане регулятора:</t>
+  </si>
+  <si>
+    <t>Регулятор перепада давления</t>
+  </si>
+  <si>
+    <t>Потери давления на регуляторе   ΔPрд=</t>
+  </si>
+  <si>
+    <t>Перепад давлений, поддерживаемый регулятором на регулируемом участке   ΔPру=</t>
+  </si>
+  <si>
+    <t>Максимальный перепад на регуляторе   ΔPрд(max) = Р1 - Р2 - ΔРру =</t>
+  </si>
+  <si>
+    <t>бар</t>
+  </si>
+  <si>
+    <t>Требуемое давление после регулятора   Р(треб)=</t>
+  </si>
+  <si>
+    <t>Давление перед регулятором   Р'1=</t>
+  </si>
+  <si>
+    <t>Требуемое давление пара после регулятора   Р(треб)=</t>
+  </si>
+  <si>
+    <t>Давление пара перед регулятором   Р'1=</t>
+  </si>
+  <si>
+    <t>Температура пара через регулятор   Т1=</t>
+  </si>
+  <si>
+    <t>Регулятор давления "до себя"</t>
+  </si>
+  <si>
+    <t>Требуемое давление перед регулятором   Р(треб)=</t>
+  </si>
+  <si>
+    <t>Давление после регулятора   Р'2=</t>
+  </si>
+  <si>
+    <t>Регулятор "перепуска"</t>
+  </si>
+  <si>
+    <t>Расчет регулятора давления на кавитацию:</t>
+  </si>
+  <si>
+    <t>Расход через регулятор давления:</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в подающем трубопроводе   Т1=</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в обратном трубопроводе   Т2=</t>
+  </si>
+  <si>
+    <t>Тепловая мощность   Q=</t>
+  </si>
+  <si>
+    <t>Максимальный расход через регулятор   Gрд=</t>
+  </si>
+  <si>
+    <t>Давление перед регулятором   P'=</t>
+  </si>
+  <si>
+    <t>Результат расчета регулятора давления</t>
+  </si>
+  <si>
+    <t>Диапазон настройки, бар</t>
+  </si>
+  <si>
+    <t>Скорость в выходном сечении регулятора V, м/с</t>
+  </si>
+  <si>
+    <t>Масса m=</t>
+  </si>
+  <si>
+    <t>В комплекте с регуляторами давления поставляются импульсные трубки в количестве:
+- с регуляторами перепада давления RDT и регуляторами "перепуска" RDT-B - 2 шт.;
+- с регуляторами давления "после себя" RDT-P и регуляторами давления "до себя" RDT-S - 1 шт.</t>
+  </si>
+  <si>
+    <t>Марка регулятора давления</t>
+  </si>
+  <si>
+    <t>Максимальная температура теплоносителя через регулятор   Т1=</t>
+  </si>
+  <si>
+    <t>Оптимальная скорость в выходном сечении регулятора: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
+  </si>
+  <si>
+    <t>Давление в подающем трубопроводе на вводе в ТП   Р1=</t>
+  </si>
+  <si>
+    <t>Давление в обратном трубопроводе на вводе в ТП   Р2=</t>
+  </si>
+  <si>
+    <t>Версия:</t>
+  </si>
+  <si>
+    <t>°С</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Фактические потери давления на полностью открытом клапане при заданном расходе </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -53,7 +202,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -64,132 +213,12 @@
     </r>
   </si>
   <si>
-    <t>Дата расчета:</t>
-  </si>
-  <si>
-    <t>Объект:</t>
-  </si>
-  <si>
-    <t>Место установки:</t>
-  </si>
-  <si>
-    <t>Входные данные</t>
-  </si>
-  <si>
-    <t>Рабочая среда:</t>
-  </si>
-  <si>
-    <t>Максимальная рабочая температура:</t>
-  </si>
-  <si>
-    <t>Максимальное рабочее давление:</t>
-  </si>
-  <si>
-    <t>мм</t>
-  </si>
-  <si>
-    <t>Длина L=</t>
-  </si>
-  <si>
-    <t>Высота H1=</t>
-  </si>
-  <si>
-    <t>Высота H=</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Исполнение регулятора:</t>
-  </si>
-  <si>
-    <t>Регулятор давления "после себя"</t>
-  </si>
-  <si>
-    <t>Марка регулятора:</t>
-  </si>
-  <si>
-    <t>Потери давления на клапане регулятора:</t>
-  </si>
-  <si>
-    <t>Регулятор перепада давления</t>
-  </si>
-  <si>
-    <t>Потери давления на регуляторе   ΔPрд=</t>
-  </si>
-  <si>
-    <t>Перепад давлений, поддерживаемый регулятором на регулируемом участке   ΔPру=</t>
-  </si>
-  <si>
-    <t>Максимальный перепад на регуляторе   ΔPрд(max) = Р1 - Р2 - ΔРру =</t>
-  </si>
-  <si>
-    <t>бар</t>
-  </si>
-  <si>
-    <t>Требуемое давление после регулятора   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление перед регулятором   Р'1=</t>
-  </si>
-  <si>
-    <t>Требуемое давление пара после регулятора   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление пара перед регулятором   Р'1=</t>
-  </si>
-  <si>
-    <t>Температура пара через регулятор   Т1=</t>
-  </si>
-  <si>
-    <t>Регулятор давления "до себя"</t>
-  </si>
-  <si>
-    <t>Требуемое давление перед регулятором   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление после регулятора   Р'2=</t>
-  </si>
-  <si>
-    <t>Регулятор "перепуска"</t>
-  </si>
-  <si>
-    <t>Расчет регулятора давления на кавитацию:</t>
-  </si>
-  <si>
-    <t>Расход через регулятор давления:</t>
-  </si>
-  <si>
-    <t>Температура теплоносителя в подающем трубопроводе   Т1=</t>
-  </si>
-  <si>
-    <t>Температура теплоносителя в обратном трубопроводе   Т2=</t>
-  </si>
-  <si>
-    <t>Тепловая мощность   Q=</t>
-  </si>
-  <si>
-    <t>Максимальный расход через регулятор   Gрд=</t>
-  </si>
-  <si>
-    <t>Давление перед регулятором   P'=</t>
-  </si>
-  <si>
-    <t>Результат расчета регулятора давления</t>
-  </si>
-  <si>
-    <t>Диапазон настройки, бар</t>
-  </si>
-  <si>
-    <t>Скорость в выходном сечении регулятора V, м/с</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Предельно допустимый перепад давлений на регуляторе </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -198,41 +227,12 @@
       <t>ΔPпред, бар</t>
     </r>
   </si>
-  <si>
-    <t>Масса m=</t>
-  </si>
-  <si>
-    <t>В комплекте с регуляторами давления поставляются импульсные трубки в количестве:
-- с регуляторами перепада давления RDT и регуляторами "перепуска" RDT-B - 2 шт.;
-- с регуляторами давления "после себя" RDT-P и регуляторами давления "до себя" RDT-S - 1 шт.</t>
-  </si>
-  <si>
-    <t>Марка регулятора давления</t>
-  </si>
-  <si>
-    <t>Максимальная температура теплоносителя через регулятор   Т1=</t>
-  </si>
-  <si>
-    <t>Оптимальная скорость в выходном сечении регулятора: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
-  </si>
-  <si>
-    <t>Давление в подающем трубопроводе на вводе в ТП   Р1=</t>
-  </si>
-  <si>
-    <t>Давление в обратном трубопроводе на вводе в ТП   Р2=</t>
-  </si>
-  <si>
-    <t>Версия:</t>
-  </si>
-  <si>
-    <t>°С</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +248,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -336,6 +329,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,140 +417,146 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -877,7 +891,7 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,12 +918,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="21"/>
+      <c r="H2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -924,19 +938,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -951,19 +965,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="A4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -978,19 +992,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
+      <c r="A5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1005,19 +1019,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1057,12 +1071,12 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1084,19 +1098,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1111,19 +1125,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="A10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1138,19 +1152,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="A11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1165,18 +1179,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1192,18 +1206,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="A13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="16"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1219,18 +1233,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1246,18 +1260,18 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="A15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1273,20 +1287,20 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1302,19 +1316,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="A17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1329,19 +1343,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="17"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="F18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="17"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
@@ -1358,19 +1372,19 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="17"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="17"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
@@ -1387,20 +1401,20 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1416,19 +1430,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="A21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1443,18 +1457,18 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="A22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1470,18 +1484,18 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="16"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1497,19 +1511,19 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="A24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1524,18 +1538,18 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="A25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="16"/>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
@@ -1551,19 +1565,19 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="A26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="2"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1578,18 +1592,18 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="A27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="16"/>
       <c r="L27" s="2"/>
       <c r="M27" s="4"/>
@@ -1605,20 +1619,20 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
@@ -1634,19 +1648,19 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="A29" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="2"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1661,20 +1675,20 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="A30" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="4"/>
@@ -1690,20 +1704,20 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
+      <c r="A31" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
@@ -1719,18 +1733,18 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+      <c r="A32" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="16"/>
       <c r="L32" s="2"/>
       <c r="M32" s="4"/>
@@ -1746,18 +1760,18 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
+      <c r="A33" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="16"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1798,12 +1812,12 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="A35" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1825,19 +1839,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="A36" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1852,19 +1866,19 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="A37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -1904,33 +1918,33 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="10" t="s">
+      <c r="D39" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="10" t="s">
+      <c r="I39" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="47" t="s">
         <v>3</v>
       </c>
       <c r="L39" s="2"/>
@@ -1950,13 +1964,13 @@
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="10"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -1972,19 +1986,19 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
+      <c r="A41" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -1999,19 +2013,19 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="A42" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2051,15 +2065,15 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="D44" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="41"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="D44" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="22"/>
       <c r="F44" s="14"/>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2079,15 +2093,15 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="D45" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="41"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="D45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="22"/>
       <c r="F45" s="14"/>
       <c r="G45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2107,15 +2121,15 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="D46" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="41"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="D46" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="22"/>
       <c r="F46" s="14"/>
       <c r="G46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2135,15 +2149,15 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="D47" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="43"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="D47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="24"/>
       <c r="F47" s="15"/>
       <c r="G47" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2163,8 +2177,8 @@
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
@@ -2188,8 +2202,8 @@
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2209,8 +2223,8 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2230,8 +2244,8 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2251,8 +2265,8 @@
       <c r="W51" s="2"/>
     </row>
     <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2272,8 +2286,8 @@
       <c r="W52" s="2"/>
     </row>
     <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2281,7 +2295,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="J53" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="2"/>
@@ -3024,6 +3038,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A44:B53"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
@@ -3040,60 +3108,6 @@
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A44:B53"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.28125" right="0.29166666666666669" top="7.2916666666666671E-2" bottom="0.17708333333333334" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Debug\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B2701812B1BC0894C470CD0CEE468ED22DF43BF5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2D2F534-3CF6-45B1-A4EB-6EE9E1AD8E57}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -173,12 +174,6 @@
   </si>
   <si>
     <t>Оптимальная скорость в выходном сечении регулятора: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
-  </si>
-  <si>
-    <t>Давление в подающем трубопроводе на вводе в ТП   Р1=</t>
-  </si>
-  <si>
-    <t>Давление в обратном трубопроводе на вводе в ТП   Р2=</t>
   </si>
   <si>
     <t>Версия:</t>
@@ -227,11 +222,17 @@
       <t>ΔPпред, бар</t>
     </r>
   </si>
+  <si>
+    <t>Давление в подающем трубопроводе   Р1=</t>
+  </si>
+  <si>
+    <t>Давление в обратном трубопроводе   Р2=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,6 +476,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -493,70 +554,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,7 +594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -887,30 +894,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
-    <col min="12" max="23" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="3" customWidth="1"/>
+    <col min="12" max="23" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -918,12 +925,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -937,20 +944,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -964,20 +971,20 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -991,20 +998,20 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1018,20 +1025,20 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1045,7 +1052,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="4"/>
@@ -1070,13 +1077,13 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1097,20 +1104,20 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1124,7 +1131,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
@@ -1151,20 +1158,20 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1178,19 +1185,19 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1205,19 +1212,19 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="16"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1232,19 +1239,19 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1259,19 +1266,19 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1286,19 +1293,19 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="16" t="s">
         <v>24</v>
       </c>
@@ -1315,20 +1322,20 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1342,20 +1349,20 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="17"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="17"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
@@ -1371,20 +1378,20 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="17"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="17"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
@@ -1400,21 +1407,21 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1429,20 +1436,20 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1456,19 +1463,19 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1483,19 +1490,19 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="16"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1510,20 +1517,20 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1537,19 +1544,19 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="16"/>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
@@ -1564,7 +1571,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>34</v>
       </c>
@@ -1591,19 +1598,19 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
       <c r="K27" s="16"/>
       <c r="L27" s="2"/>
       <c r="M27" s="4"/>
@@ -1618,21 +1625,21 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
@@ -1647,7 +1654,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>35</v>
       </c>
@@ -1674,21 +1681,21 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="4"/>
@@ -1703,21 +1710,21 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
       <c r="K31" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
@@ -1732,19 +1739,19 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="16"/>
       <c r="L32" s="2"/>
       <c r="M32" s="4"/>
@@ -1759,19 +1766,19 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="16"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1786,7 +1793,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1811,13 +1818,13 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1838,20 +1845,20 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1865,20 +1872,20 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -1892,7 +1899,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1917,34 +1924,34 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="47" t="s">
+      <c r="D39" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="47" t="s">
+      <c r="H39" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="47" t="s">
+      <c r="I39" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="K39" s="21" t="s">
         <v>3</v>
       </c>
       <c r="L39" s="2"/>
@@ -1960,17 +1967,17 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="10"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -1985,20 +1992,20 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2012,20 +2019,20 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2039,7 +2046,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
@@ -2064,13 +2071,13 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="D44" s="21" t="s">
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="D44" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="14"/>
       <c r="G44" s="9" t="s">
         <v>11</v>
@@ -2092,13 +2099,13 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="D45" s="21" t="s">
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="D45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="14"/>
       <c r="G45" s="9" t="s">
         <v>11</v>
@@ -2120,13 +2127,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="D46" s="21" t="s">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="D46" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="42"/>
       <c r="F46" s="14"/>
       <c r="G46" s="9" t="s">
         <v>11</v>
@@ -2148,13 +2155,13 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="D47" s="23" t="s">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="D47" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="15"/>
       <c r="G47" s="9" t="s">
         <v>15</v>
@@ -2176,9 +2183,9 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
@@ -2201,9 +2208,9 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2222,9 +2229,9 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2243,9 +2250,9 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2264,9 +2271,9 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2285,9 +2292,9 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2295,7 +2302,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="J53" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="2"/>
@@ -2311,7 +2318,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2336,7 +2343,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2361,7 +2368,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2386,7 +2393,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2411,7 +2418,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2436,7 +2443,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2461,7 +2468,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2486,7 +2493,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2511,7 +2518,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2536,7 +2543,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2561,7 +2568,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2586,7 +2593,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2611,7 +2618,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2636,7 +2643,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2661,7 +2668,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2686,7 +2693,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2711,7 +2718,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2736,7 +2743,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2761,7 +2768,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2786,7 +2793,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2811,7 +2818,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2836,7 +2843,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2861,7 +2868,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2886,7 +2893,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2911,7 +2918,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2936,7 +2943,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2961,7 +2968,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2986,7 +2993,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3011,7 +3018,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3038,6 +3045,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A44:B53"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -3054,60 +3115,6 @@
     <mergeCell ref="E37:K37"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <pageMargins left="0.28125" right="0.29166666666666669" top="7.2916666666666671E-2" bottom="0.17708333333333334" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_B2701812B1BC0894C470CD0CEE468ED22DF43BF5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2D2F534-3CF6-45B1-A4EB-6EE9E1AD8E57}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99D49ABD-81CA-4B9F-A8D4-082684430808}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -37,149 +37,6 @@
   </si>
   <si>
     <t>Кавитация</t>
-  </si>
-  <si>
-    <t>Дата расчета:</t>
-  </si>
-  <si>
-    <t>Объект:</t>
-  </si>
-  <si>
-    <t>Место установки:</t>
-  </si>
-  <si>
-    <t>Входные данные</t>
-  </si>
-  <si>
-    <t>Рабочая среда:</t>
-  </si>
-  <si>
-    <t>Максимальная рабочая температура:</t>
-  </si>
-  <si>
-    <t>Максимальное рабочее давление:</t>
-  </si>
-  <si>
-    <t>мм</t>
-  </si>
-  <si>
-    <t>Длина L=</t>
-  </si>
-  <si>
-    <t>Высота H1=</t>
-  </si>
-  <si>
-    <t>Высота H=</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Исполнение регулятора:</t>
-  </si>
-  <si>
-    <t>Регулятор давления "после себя"</t>
-  </si>
-  <si>
-    <t>Марка регулятора:</t>
-  </si>
-  <si>
-    <t>Потери давления на клапане регулятора:</t>
-  </si>
-  <si>
-    <t>Регулятор перепада давления</t>
-  </si>
-  <si>
-    <t>Потери давления на регуляторе   ΔPрд=</t>
-  </si>
-  <si>
-    <t>Перепад давлений, поддерживаемый регулятором на регулируемом участке   ΔPру=</t>
-  </si>
-  <si>
-    <t>Максимальный перепад на регуляторе   ΔPрд(max) = Р1 - Р2 - ΔРру =</t>
-  </si>
-  <si>
-    <t>бар</t>
-  </si>
-  <si>
-    <t>Требуемое давление после регулятора   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление перед регулятором   Р'1=</t>
-  </si>
-  <si>
-    <t>Требуемое давление пара после регулятора   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление пара перед регулятором   Р'1=</t>
-  </si>
-  <si>
-    <t>Температура пара через регулятор   Т1=</t>
-  </si>
-  <si>
-    <t>Регулятор давления "до себя"</t>
-  </si>
-  <si>
-    <t>Требуемое давление перед регулятором   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление после регулятора   Р'2=</t>
-  </si>
-  <si>
-    <t>Регулятор "перепуска"</t>
-  </si>
-  <si>
-    <t>Расчет регулятора давления на кавитацию:</t>
-  </si>
-  <si>
-    <t>Расход через регулятор давления:</t>
-  </si>
-  <si>
-    <t>Температура теплоносителя в подающем трубопроводе   Т1=</t>
-  </si>
-  <si>
-    <t>Температура теплоносителя в обратном трубопроводе   Т2=</t>
-  </si>
-  <si>
-    <t>Тепловая мощность   Q=</t>
-  </si>
-  <si>
-    <t>Максимальный расход через регулятор   Gрд=</t>
-  </si>
-  <si>
-    <t>Давление перед регулятором   P'=</t>
-  </si>
-  <si>
-    <t>Результат расчета регулятора давления</t>
-  </si>
-  <si>
-    <t>Диапазон настройки, бар</t>
-  </si>
-  <si>
-    <t>Скорость в выходном сечении регулятора V, м/с</t>
-  </si>
-  <si>
-    <t>Масса m=</t>
-  </si>
-  <si>
-    <t>В комплекте с регуляторами давления поставляются импульсные трубки в количестве:
-- с регуляторами перепада давления RDT и регуляторами "перепуска" RDT-B - 2 шт.;
-- с регуляторами давления "после себя" RDT-P и регуляторами давления "до себя" RDT-S - 1 шт.</t>
-  </si>
-  <si>
-    <t>Марка регулятора давления</t>
-  </si>
-  <si>
-    <t>Максимальная температура теплоносителя через регулятор   Т1=</t>
-  </si>
-  <si>
-    <t>Оптимальная скорость в выходном сечении регулятора: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
-  </si>
-  <si>
-    <t>Версия:</t>
-  </si>
-  <si>
-    <t>°С</t>
   </si>
   <si>
     <r>
@@ -187,7 +44,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -197,7 +54,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -208,12 +65,148 @@
     </r>
   </si>
   <si>
+    <t>Дата расчета:</t>
+  </si>
+  <si>
+    <t>Объект:</t>
+  </si>
+  <si>
+    <t>Место установки:</t>
+  </si>
+  <si>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Рабочая среда:</t>
+  </si>
+  <si>
+    <t>Максимальная рабочая температура:</t>
+  </si>
+  <si>
+    <t>Максимальное рабочее давление:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>С</t>
+    </r>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Длина L=</t>
+  </si>
+  <si>
+    <t>Высота H1=</t>
+  </si>
+  <si>
+    <t>Высота H=</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Исполнение регулятора:</t>
+  </si>
+  <si>
+    <t>Регулятор давления "после себя"</t>
+  </si>
+  <si>
+    <t>Марка регулятора:</t>
+  </si>
+  <si>
+    <t>Потери давления на клапане регулятора:</t>
+  </si>
+  <si>
+    <t>Регулятор перепада давления</t>
+  </si>
+  <si>
+    <t>Потери давления на регуляторе   ΔPрд=</t>
+  </si>
+  <si>
+    <t>Перепад давлений, поддерживаемый регулятором на регулируемом участке   ΔPру=</t>
+  </si>
+  <si>
+    <t>Максимальный перепад на регуляторе   ΔPрд(max) = Р1 - Р2 - ΔРру =</t>
+  </si>
+  <si>
+    <t>бар</t>
+  </si>
+  <si>
+    <t>Требуемое давление после регулятора   Р(треб)=</t>
+  </si>
+  <si>
+    <t>Давление перед регулятором   Р'1=</t>
+  </si>
+  <si>
+    <t>Регулятор давления "до себя"</t>
+  </si>
+  <si>
+    <t>Требуемое давление перед регулятором   Р(треб)=</t>
+  </si>
+  <si>
+    <t>Давление после регулятора   Р'2=</t>
+  </si>
+  <si>
+    <t>Регулятор "перепуска"</t>
+  </si>
+  <si>
+    <t>Расчет регулятора давления на кавитацию:</t>
+  </si>
+  <si>
+    <t>Расход через регулятор давления:</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в подающем трубопроводе   Т1=</t>
+  </si>
+  <si>
+    <t>Температура теплоносителя в обратном трубопроводе   Т2=</t>
+  </si>
+  <si>
+    <t>Тепловая мощность   Q=</t>
+  </si>
+  <si>
+    <t>Максимальный расход через регулятор   Gрд=</t>
+  </si>
+  <si>
+    <t>Давление перед регулятором   P'=</t>
+  </si>
+  <si>
+    <t>Результат расчета регулятора давления</t>
+  </si>
+  <si>
+    <t>Диапазон настройки, бар</t>
+  </si>
+  <si>
+    <t>Скорость в выходном сечении регулятора V, м/с</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Предельно допустимый перепад давлений на регуляторе </t>
     </r>
     <r>
       <rPr>
-        <sz val="6.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -223,17 +216,34 @@
     </r>
   </si>
   <si>
+    <t>Масса m=</t>
+  </si>
+  <si>
+    <t>В комплекте с регуляторами давления поставляются импульсные трубки в количестве:
+- с регуляторами перепада давления RDT и регуляторами "перепуска" RDT-B - 2 шт.;
+- с регуляторами давления "после себя" RDT-P и регуляторами давления "до себя" RDT-S - 1 шт.</t>
+  </si>
+  <si>
+    <t>Марка регулятора давления</t>
+  </si>
+  <si>
+    <t>Максимальная температура теплоносителя через регулятор   Т1=</t>
+  </si>
+  <si>
     <t>Давление в подающем трубопроводе   Р1=</t>
   </si>
   <si>
     <t>Давление в обратном трубопроводе   Р2=</t>
+  </si>
+  <si>
+    <t>Оптимальная скорость в выходном сечении регулятора: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +259,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,6 +285,15 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -321,29 +347,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,135 +421,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -554,8 +536,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -895,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,12 +919,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -945,19 +939,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -972,19 +966,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -999,19 +993,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1026,19 +1020,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="A6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1078,12 +1072,12 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1105,19 +1099,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="A9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1132,19 +1126,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="A10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1159,19 +1153,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
+      <c r="A11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1186,18 +1180,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="A12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1213,18 +1207,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="A13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="16"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1240,18 +1234,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="A14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1267,18 +1261,18 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="A15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1294,20 +1288,20 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="A16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1323,19 +1317,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="A17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1350,20 +1344,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="33" t="s">
+      <c r="A18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1378,21 +1370,19 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="33" t="s">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1408,21 +1398,19 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1437,19 +1425,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1464,18 +1452,18 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1491,46 +1479,46 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="16"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="A24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1544,20 +1532,20 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="16"/>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1571,20 +1559,20 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="2"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1599,19 +1587,21 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="16"/>
+      <c r="A27" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -1625,22 +1615,20 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="18" t="s">
-        <v>50</v>
-      </c>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1654,20 +1642,22 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1682,20 +1672,20 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="18" t="s">
-        <v>50</v>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="4"/>
@@ -1711,21 +1701,19 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1740,46 +1728,44 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="16"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="16"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1793,18 +1779,20 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="4"/>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1819,19 +1807,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="A35" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -1846,19 +1834,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="A36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1872,20 +1860,18 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -1899,18 +1885,36 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -1924,36 +1928,18 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="21" t="s">
-        <v>3</v>
-      </c>
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -1967,18 +1953,20 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="10"/>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -1992,20 +1980,20 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2019,20 +2007,18 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2049,11 +2035,14 @@
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2072,15 +2061,15 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="D44" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="42"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="40"/>
       <c r="F44" s="14"/>
       <c r="G44" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2100,15 +2089,15 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="D45" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="42"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="40"/>
       <c r="F45" s="14"/>
       <c r="G45" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2128,15 +2117,15 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="D46" s="41" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E46" s="42"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2155,17 +2144,14 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="D47" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="9" t="s">
-        <v>15</v>
-      </c>
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2183,19 +2169,15 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2209,14 +2191,14 @@
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2229,15 +2211,15 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2250,15 +2232,15 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2272,9 +2254,13 @@
       <c r="W51" s="2"/>
     </row>
     <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2293,18 +2279,17 @@
       <c r="W52" s="2"/>
     </row>
     <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="J53" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53" s="20"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -2793,7 +2778,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2918,7 +2903,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3018,88 +3003,66 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="67">
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:K3"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:K36"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
     <mergeCell ref="A11:K11"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A44:B53"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
@@ -3109,14 +3072,8 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <pageMargins left="0.28125" right="0.29166666666666669" top="7.2916666666666671E-2" bottom="0.17708333333333334" header="0" footer="0"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99D49ABD-81CA-4B9F-A8D4-082684430808}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94A00697-41F9-4688-9286-05E9658238FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,6 +467,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -488,9 +539,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -500,58 +548,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,12 +919,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -939,19 +939,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -966,19 +966,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -993,19 +993,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1020,19 +1020,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1103,15 +1103,15 @@
         <v>9</v>
       </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1126,19 +1126,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1153,19 +1153,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1180,18 +1180,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1207,18 +1207,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="16"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1234,18 +1234,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1261,18 +1261,18 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1288,18 +1288,18 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="16" t="s">
         <v>26</v>
       </c>
@@ -1317,19 +1317,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1344,18 +1344,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1371,18 +1371,18 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1398,19 +1398,19 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1425,18 +1425,18 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="16"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1452,18 +1452,18 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1479,19 +1479,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1506,18 +1506,18 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
@@ -1533,19 +1533,19 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1560,18 +1560,18 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="16"/>
       <c r="L26" s="2"/>
       <c r="M26" s="4"/>
@@ -1587,18 +1587,18 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="16" t="s">
         <v>12</v>
       </c>
@@ -1616,19 +1616,19 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1643,18 +1643,18 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="16" t="s">
         <v>12</v>
       </c>
@@ -1672,18 +1672,18 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="16" t="s">
         <v>12</v>
       </c>
@@ -1701,18 +1701,18 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="16"/>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
@@ -1728,18 +1728,18 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="16"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1807,19 +1807,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -1834,19 +1834,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1895,10 +1895,10 @@
       <c r="C38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="45"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="10" t="s">
         <v>41</v>
       </c>
@@ -1908,10 +1908,10 @@
       <c r="H38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="45"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="10" t="s">
         <v>3</v>
       </c>
@@ -1932,13 +1932,13 @@
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="10"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -1954,19 +1954,19 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -1981,19 +1981,19 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2035,10 +2035,10 @@
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="14"/>
       <c r="G43" s="9" t="s">
         <v>13</v>
@@ -2063,10 +2063,10 @@
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="14"/>
       <c r="G44" s="9" t="s">
         <v>13</v>
@@ -2091,10 +2091,10 @@
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="14"/>
       <c r="G45" s="9" t="s">
         <v>13</v>
@@ -2119,10 +2119,10 @@
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="15"/>
       <c r="G46" s="9" t="s">
         <v>17</v>
@@ -3005,6 +3005,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
@@ -3021,57 +3072,6 @@
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94A00697-41F9-4688-9286-05E9658238FF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BEA7C953-8155-4996-B9A4-7E6B22E1F85F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Номинальный диаметр DN, мм</t>
-  </si>
-  <si>
-    <t>Пропускная способность Kvs, м3/ч</t>
   </si>
   <si>
     <t>Шум, некачественное регулирование</t>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Оптимальная скорость в выходном сечении регулятора: 2-3 м/с для ИТП; 2-5 м/с для ЦТП.</t>
+  </si>
+  <si>
+    <t>Пропускная способность Kvs, м³/ч</t>
   </si>
 </sst>
 </file>
@@ -467,9 +467,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -485,73 +551,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,12 +919,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="H2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -939,19 +939,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="A3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -966,19 +966,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -993,19 +993,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
+      <c r="A5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1020,19 +1020,19 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1100,18 +1100,18 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1126,19 +1126,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="A10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1153,19 +1153,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="A11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1180,18 +1180,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="A12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1207,18 +1207,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="A13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="16"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1234,18 +1234,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="A14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1261,18 +1261,18 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="A15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1288,20 +1288,20 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1317,19 +1317,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="A17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1344,18 +1344,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="A18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1371,18 +1371,18 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1398,19 +1398,19 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="A20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1425,18 +1425,18 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="A21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="16"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1452,18 +1452,18 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1479,19 +1479,19 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="A23" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1506,18 +1506,18 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="A24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
@@ -1533,19 +1533,19 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="A25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1560,18 +1560,18 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="A26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="16"/>
       <c r="L26" s="2"/>
       <c r="M26" s="4"/>
@@ -1587,20 +1587,20 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="A27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="4"/>
@@ -1616,19 +1616,19 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="A28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1643,20 +1643,20 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="A29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="4"/>
@@ -1672,20 +1672,20 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="A30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="4"/>
@@ -1701,18 +1701,18 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="A31" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="16"/>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
@@ -1728,18 +1728,18 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="A32" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="16"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -1807,19 +1807,19 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="A35" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -1834,19 +1834,19 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="A36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1887,33 +1887,33 @@
     </row>
     <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="I38" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="J38" s="45"/>
+      <c r="K38" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -1932,13 +1932,13 @@
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="10"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -1954,19 +1954,19 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="A40" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -1981,19 +1981,19 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="A41" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2035,13 +2035,13 @@
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="D43" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="18"/>
+      <c r="D43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="40"/>
       <c r="F43" s="14"/>
       <c r="G43" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2063,13 +2063,13 @@
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="D44" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="18"/>
+      <c r="D44" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="40"/>
       <c r="F44" s="14"/>
       <c r="G44" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2091,13 +2091,13 @@
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="D45" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="18"/>
+      <c r="D45" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="40"/>
       <c r="F45" s="14"/>
       <c r="G45" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2119,13 +2119,13 @@
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="D46" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="20"/>
+      <c r="D46" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="42"/>
       <c r="F46" s="15"/>
       <c r="G46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3005,15 +3005,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A13:H13"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A41:K41"/>
@@ -3030,48 +3063,15 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BEA7C953-8155-4996-B9A4-7E6B22E1F85F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8B6FBA5-8BEA-47AF-AD7B-F3D739782D94}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -467,6 +467,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -488,9 +545,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -499,60 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +581,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>10835</xdr:rowOff>
     </xdr:to>
@@ -614,7 +614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1"/>
-          <a:ext cx="6334125" cy="804584"/>
+          <a:ext cx="6635750" cy="804584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,27 +891,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="3" customWidth="1"/>
-    <col min="12" max="23" width="9.109375" style="2"/>
+    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -919,12 +919,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -938,20 +938,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -965,20 +965,20 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -992,20 +992,20 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1019,20 +1019,20 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1046,7 +1046,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="4"/>
@@ -1071,13 +1071,13 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1098,20 +1098,20 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1125,20 +1125,20 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1152,20 +1152,20 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1179,19 +1179,19 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1206,19 +1206,19 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="16"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1233,19 +1233,19 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1260,19 +1260,19 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1287,19 +1287,19 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="16" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>18</v>
       </c>
@@ -1343,19 +1343,19 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1370,19 +1370,19 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1397,20 +1397,20 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1424,19 +1424,19 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="16"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1451,19 +1451,19 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1478,20 +1478,20 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1505,19 +1505,19 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
@@ -1532,20 +1532,20 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1559,19 +1559,19 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="16"/>
       <c r="L26" s="2"/>
       <c r="M26" s="4"/>
@@ -1586,19 +1586,19 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="16" t="s">
         <v>11</v>
       </c>
@@ -1615,20 +1615,20 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="2"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1642,19 +1642,19 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="16" t="s">
         <v>11</v>
       </c>
@@ -1671,19 +1671,19 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="16" t="s">
         <v>11</v>
       </c>
@@ -1700,19 +1700,19 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="16"/>
       <c r="L31" s="2"/>
       <c r="M31" s="4"/>
@@ -1727,19 +1727,19 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="16"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1754,7 +1754,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1779,13 +1779,13 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1806,20 +1806,20 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -1833,20 +1833,20 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1860,7 +1860,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1885,7 +1885,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>45</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="C38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="45"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="10" t="s">
         <v>40</v>
       </c>
@@ -1908,10 +1908,10 @@
       <c r="H38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="45"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="10" t="s">
         <v>2</v>
       </c>
@@ -1928,17 +1928,17 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="10"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -1953,20 +1953,20 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -1980,20 +1980,20 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2007,7 +2007,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
@@ -2032,13 +2032,13 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="14"/>
       <c r="G43" s="9" t="s">
         <v>12</v>
@@ -2060,13 +2060,13 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="14"/>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -2088,13 +2088,13 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="14"/>
       <c r="G45" s="9" t="s">
         <v>12</v>
@@ -2116,13 +2116,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="15"/>
       <c r="G46" s="9" t="s">
         <v>16</v>
@@ -2144,7 +2144,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
@@ -2169,7 +2169,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2190,7 +2190,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2211,7 +2211,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2232,7 +2232,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2253,7 +2253,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2278,7 +2278,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2303,7 +2303,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2328,7 +2328,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2353,7 +2353,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2378,7 +2378,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2403,7 +2403,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2428,7 +2428,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2453,7 +2453,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2478,7 +2478,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2503,7 +2503,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2528,7 +2528,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2553,7 +2553,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2578,7 +2578,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2603,7 +2603,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2628,7 +2628,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2653,7 +2653,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2678,7 +2678,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2703,7 +2703,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2728,7 +2728,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2753,7 +2753,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2778,7 +2778,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2803,7 +2803,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2828,7 +2828,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2853,7 +2853,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2878,7 +2878,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2903,7 +2903,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2928,7 +2928,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2953,7 +2953,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2978,7 +2978,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3005,6 +3005,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
@@ -3021,57 +3072,6 @@
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8B6FBA5-8BEA-47AF-AD7B-F3D739782D94}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B0E4620-6FCC-4F0E-8B8F-566371C03277}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -581,8 +581,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>10835</xdr:rowOff>
     </xdr:to>
@@ -596,7 +596,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -614,7 +614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1"/>
-          <a:ext cx="6635750" cy="804584"/>
+          <a:ext cx="6326188" cy="804584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,7 +892,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/TeploSilaWeb/TeplosilaWeb/Content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Рабочая папка\ТЗ программа подбора TRV, RDT\templates\Новые RDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{F7AA5767-6F95-4FDE-BBF4-12E955C09F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B0E4620-6FCC-4F0E-8B8F-566371C03277}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -68,9 +67,6 @@
     <t>Объект:</t>
   </si>
   <si>
-    <t>Место установки:</t>
-  </si>
-  <si>
     <t>Входные данные</t>
   </si>
   <si>
@@ -126,18 +122,12 @@
     <t>Исполнение регулятора:</t>
   </si>
   <si>
-    <t>Регулятор давления "после себя"</t>
-  </si>
-  <si>
     <t>Марка регулятора:</t>
   </si>
   <si>
     <t>Потери давления на клапане регулятора:</t>
   </si>
   <si>
-    <t>Регулятор перепада давления</t>
-  </si>
-  <si>
     <t>Потери давления на регуляторе   ΔPрд=</t>
   </si>
   <si>
@@ -148,24 +138,6 @@
   </si>
   <si>
     <t>бар</t>
-  </si>
-  <si>
-    <t>Требуемое давление после регулятора   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление перед регулятором   Р'1=</t>
-  </si>
-  <si>
-    <t>Регулятор давления "до себя"</t>
-  </si>
-  <si>
-    <t>Требуемое давление перед регулятором   Р(треб)=</t>
-  </si>
-  <si>
-    <t>Давление после регулятора   Р'2=</t>
-  </si>
-  <si>
-    <t>Регулятор "перепуска"</t>
   </si>
   <si>
     <t>Расчет регулятора давления на кавитацию:</t>
@@ -216,11 +188,6 @@
     <t>Масса m=</t>
   </si>
   <si>
-    <t>В комплекте с регуляторами давления поставляются импульсные трубки в количестве:
-- с регуляторами перепада давления RDT и регуляторами "перепуска" RDT-B - 2 шт.;
-- с регуляторами давления "после себя" RDT-P и регуляторами давления "до себя" RDT-S - 1 шт.</t>
-  </si>
-  <si>
     <t>Марка регулятора давления</t>
   </si>
   <si>
@@ -237,12 +204,18 @@
   </si>
   <si>
     <t>Пропускная способность Kvs, м³/ч</t>
+  </si>
+  <si>
+    <t>В комплекте с регуляторами перепада давления RDT поставляются:
+- медная импульсная трубка - 2 шт.;
+- латунная гайка - 4 шт.;
+- латунный штуцер - 2 шт.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,9 +404,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -467,6 +437,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -485,74 +506,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="A31" sqref="A31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,12 +874,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -939,19 +894,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -966,19 +921,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="A4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -993,19 +948,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1019,20 +974,18 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1046,18 +999,20 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1072,19 +1027,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1098,11 +1053,11 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -1125,20 +1080,20 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1153,19 +1108,19 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="A11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1181,7 +1136,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -1190,9 +1145,9 @@
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1208,7 +1163,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -1217,9 +1172,9 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1235,7 +1190,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -1244,9 +1199,11 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1260,36 +1217,36 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="16"/>
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -1298,135 +1255,139 @@
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="16" t="s">
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1435,25 +1396,25 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -1462,9 +1423,9 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1478,269 +1439,271 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="16"/>
+      <c r="A24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="16"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="16"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="16"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1754,18 +1717,21 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="4"/>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1779,16 +1745,17 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1806,20 +1773,21 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -1833,20 +1801,21 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1860,11 +1829,11 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1885,37 +1854,15 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="2"/>
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -1928,19 +1875,15 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="2"/>
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -1953,21 +1896,15 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="2"/>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -1980,21 +1917,15 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="2"/>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2010,11 +1941,11 @@
     <row r="42" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2035,14 +1966,11 @@
     <row r="43" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="D43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2063,14 +1991,11 @@
     <row r="44" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="D44" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2091,14 +2016,11 @@
     <row r="45" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="D45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2119,14 +2041,11 @@
     <row r="46" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="D46" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2144,11 +2063,11 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2178,6 +2097,10 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2199,6 +2122,10 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2211,7 +2138,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2220,6 +2147,10 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2241,6 +2172,10 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2528,7 +2463,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2553,7 +2488,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2578,7 +2513,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2603,7 +2538,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2628,7 +2563,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2653,7 +2588,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2678,7 +2613,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2703,7 +2638,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2728,7 +2663,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2753,325 +2688,59 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-    </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-    </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-    </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-    </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-    </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-    </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-    </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-    </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-    </row>
-    <row r="81" spans="1:23" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="51">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Рабочая папка\ТЗ программа подбора TRV, RDT\templates\Новые RDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCCECE-5F03-4458-B2B8-B116E79EDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11265"/>
+    <workbookView xWindow="1590" yWindow="165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,6 +438,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -458,9 +501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -469,45 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -852,15 +853,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
@@ -874,12 +875,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -894,19 +895,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -921,19 +922,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -948,19 +949,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1000,12 +1001,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1027,19 +1028,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1054,19 +1055,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1081,18 +1082,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1108,18 +1109,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1135,18 +1136,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1162,18 +1163,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1189,18 +1190,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1218,19 +1219,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="2"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1245,18 +1246,18 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="15"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4"/>
@@ -1272,18 +1273,18 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="15" t="s">
         <v>10</v>
       </c>
@@ -1301,19 +1302,19 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1328,18 +1329,18 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="15" t="s">
         <v>10</v>
       </c>
@@ -1357,18 +1358,18 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="15" t="s">
         <v>10</v>
       </c>
@@ -1386,18 +1387,18 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="15"/>
       <c r="L21" s="2"/>
       <c r="M21" s="4"/>
@@ -1413,18 +1414,18 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1465,12 +1466,12 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1492,19 +1493,19 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1519,19 +1520,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1580,10 +1581,10 @@
       <c r="C28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
@@ -1593,10 +1594,10 @@
       <c r="H28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="39"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1617,13 +1618,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="9"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1639,19 +1640,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1666,19 +1667,19 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1720,10 +1721,10 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="13"/>
       <c r="G33" s="8" t="s">
         <v>11</v>
@@ -1748,10 +1749,10 @@
     <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="13"/>
       <c r="G34" s="8" t="s">
         <v>11</v>
@@ -1776,10 +1777,10 @@
     <row r="35" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="34"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="13"/>
       <c r="G35" s="8" t="s">
         <v>11</v>
@@ -1804,10 +1805,10 @@
     <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="36"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="14"/>
       <c r="G36" s="8" t="s">
         <v>15</v>
@@ -2690,6 +2691,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
@@ -2706,41 +2742,6 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCCECE-5F03-4458-B2B8-B116E79EDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54ADD3-6EE2-41D5-AAEF-E56BED141ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -211,6 +211,12 @@
 - медная импульсная трубка - 2 шт.;
 - латунная гайка - 4 шт.;
 - латунный штуцер - 2 шт.</t>
+  </si>
+  <si>
+    <t>Расчетный диаметр:</t>
+  </si>
+  <si>
+    <t>Расчетная пропускная способность:</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,6 +444,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -456,58 +513,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,7 +857,7 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:K31"/>
+      <selection activeCell="E25" sqref="E25:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,12 +884,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -895,19 +904,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -922,19 +931,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -949,19 +958,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1001,12 +1010,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1028,19 +1037,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1055,19 +1064,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1082,18 +1091,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1109,18 +1118,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1136,18 +1145,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1163,18 +1172,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1190,18 +1199,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1219,19 +1228,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="2"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1246,18 +1255,18 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="15"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4"/>
@@ -1273,18 +1282,18 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="15" t="s">
         <v>10</v>
       </c>
@@ -1302,19 +1311,19 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1329,18 +1338,18 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="15" t="s">
         <v>10</v>
       </c>
@@ -1358,18 +1367,18 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="15" t="s">
         <v>10</v>
       </c>
@@ -1387,18 +1396,18 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="15"/>
       <c r="L21" s="2"/>
       <c r="M21" s="4"/>
@@ -1414,18 +1423,18 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1466,12 +1475,12 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1493,19 +1502,21 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1520,19 +1531,21 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1581,10 +1594,10 @@
       <c r="C28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
@@ -1594,10 +1607,10 @@
       <c r="H28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1618,13 +1631,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="9"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1640,19 +1653,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1667,19 +1680,19 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1721,10 +1734,10 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="13"/>
       <c r="G33" s="8" t="s">
         <v>11</v>
@@ -1749,10 +1762,10 @@
     <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="13"/>
       <c r="G34" s="8" t="s">
         <v>11</v>
@@ -1777,10 +1790,10 @@
     <row r="35" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="13"/>
       <c r="G35" s="8" t="s">
         <v>11</v>
@@ -1805,10 +1818,10 @@
     <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="14"/>
       <c r="G36" s="8" t="s">
         <v>15</v>
@@ -2690,42 +2703,13 @@
       <c r="W71" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+  <mergeCells count="55">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
@@ -2742,6 +2726,39 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54ADD3-6EE2-41D5-AAEF-E56BED141ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DE8FD6-5652-4126-AB0A-2448187044C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -453,21 +504,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -475,48 +517,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,7 +857,7 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:K26"/>
+      <selection activeCell="G26" sqref="G26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,12 +866,12 @@
     <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -884,12 +884,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -904,19 +904,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -931,19 +931,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -958,19 +958,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1010,12 +1010,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1037,19 +1037,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1064,19 +1064,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1091,18 +1091,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1118,18 +1118,18 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1145,18 +1145,18 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1172,18 +1172,18 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1199,18 +1199,18 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1228,19 +1228,19 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="2"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1255,18 +1255,18 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="15"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4"/>
@@ -1282,18 +1282,18 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="15" t="s">
         <v>10</v>
       </c>
@@ -1311,19 +1311,19 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1338,18 +1338,18 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="15" t="s">
         <v>10</v>
       </c>
@@ -1367,18 +1367,18 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="15" t="s">
         <v>10</v>
       </c>
@@ -1396,18 +1396,18 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="15"/>
       <c r="L21" s="2"/>
       <c r="M21" s="4"/>
@@ -1423,18 +1423,18 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1475,12 +1475,12 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1502,21 +1502,21 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="33" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="23"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1531,21 +1531,21 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="33" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1594,10 +1594,10 @@
       <c r="C28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
@@ -1607,10 +1607,10 @@
       <c r="H28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="39"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1631,13 +1631,13 @@
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="9"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1653,19 +1653,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1680,19 +1680,19 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1734,10 +1734,10 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="13"/>
       <c r="G33" s="8" t="s">
         <v>11</v>
@@ -1762,10 +1762,10 @@
     <row r="34" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="13"/>
       <c r="G34" s="8" t="s">
         <v>11</v>
@@ -1790,10 +1790,10 @@
     <row r="35" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="34"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="13"/>
       <c r="G35" s="8" t="s">
         <v>11</v>
@@ -1818,10 +1818,10 @@
     <row r="36" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="36"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="14"/>
       <c r="G36" s="8" t="s">
         <v>15</v>
@@ -2704,12 +2704,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
@@ -2726,39 +2753,12 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DE8FD6-5652-4126-AB0A-2448187044C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64D8FBB-4DFC-4BB3-8F46-948E7D4BEFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Потери давления на клапане регулятора:</t>
-  </si>
-  <si>
-    <t>Потери давления на регуляторе   ΔPрд=</t>
   </si>
   <si>
     <t>Перепад давлений, поддерживаемый регулятором на регулируемом участке   ΔPру=</t>
@@ -337,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -397,11 +394,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,6 +577,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,7 +934,7 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:I26"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,9 +946,9 @@
     <col min="6" max="6" width="8" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1063,20 +1140,20 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1090,20 +1167,18 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="15"/>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1119,7 +1194,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1146,7 +1221,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1173,7 +1248,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1200,7 +1275,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1212,7 +1287,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1229,7 +1304,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -1256,7 +1331,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -1283,7 +1358,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -1312,7 +1387,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -1339,7 +1414,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -1368,7 +1443,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -1397,7 +1472,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1424,7 +1499,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1476,7 +1551,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -1511,7 +1586,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="20"/>
@@ -1540,7 +1615,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="20"/>
@@ -1586,29 +1661,29 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="9" t="s">
@@ -1654,7 +1729,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -1681,7 +1756,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -1819,7 +1894,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="D36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="14"/>
@@ -2703,14 +2778,14 @@
       <c r="W71" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="53">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A9:K10"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A31:K31"/>
@@ -2721,8 +2796,6 @@
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
